--- a/biology/Botanique/Carex_distans/Carex_distans.xlsx
+++ b/biology/Botanique/Carex_distans/Carex_distans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carex distans, en français Carex à épis distants, Laîche à épis distants ou Laîche distante[1], est une espèce de plantes herbacées de la famille des Cypéracées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carex distans, en français Carex à épis distants, Laîche à épis distants ou Laîche distante, est une espèce de plantes herbacées de la famille des Cypéracées.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon la World Checklist of Selected Plant Families (WCSP)                (26 juin 2012)[2] et le Catalogue of Life                                   (26 juin 2012)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la World Checklist of Selected Plant Families (WCSP)                (26 juin 2012) et le Catalogue of Life                                   (26 juin 2012) :
 Carex distans L., Syst. Nat. ed. 10 (1759)
 sous-espèce Carex distans subsp. distans
 sous-espèce Carex distans subsp. oranensis (Trab.) Jahand. &amp; Maire (1931)
-Selon le World Register of Marine Species                               (26 juin 2012)[4] :
+Selon le World Register of Marine Species                               (26 juin 2012) :
 variété Carex distans var. vikingensis</t>
         </is>
       </c>
